--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Itgb4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H2">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I2">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J2">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.42855594445353</v>
+        <v>6.875642333333333</v>
       </c>
       <c r="N2">
-        <v>2.42855594445353</v>
+        <v>20.626927</v>
       </c>
       <c r="O2">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475348</v>
       </c>
       <c r="P2">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475347</v>
       </c>
       <c r="Q2">
-        <v>0.7216703713159526</v>
+        <v>5.462260084604778</v>
       </c>
       <c r="R2">
-        <v>0.7216703713159526</v>
+        <v>49.160340761443</v>
       </c>
       <c r="S2">
-        <v>0.01900984645825635</v>
+        <v>0.06911150066156729</v>
       </c>
       <c r="T2">
-        <v>0.01900984645825635</v>
+        <v>0.06911150066156728</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H3">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I3">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J3">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.780642637836154</v>
+        <v>0.7963330000000001</v>
       </c>
       <c r="N3">
-        <v>0.780642637836154</v>
+        <v>2.388999</v>
       </c>
       <c r="O3">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486755</v>
       </c>
       <c r="P3">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486754</v>
       </c>
       <c r="Q3">
-        <v>0.2319759870465121</v>
+        <v>0.6326358686323335</v>
       </c>
       <c r="R3">
-        <v>0.2319759870465121</v>
+        <v>5.693722817691</v>
       </c>
       <c r="S3">
-        <v>0.006110584653372173</v>
+        <v>0.008004454855004995</v>
       </c>
       <c r="T3">
-        <v>0.006110584653372173</v>
+        <v>0.008004454855004993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H4">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I4">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J4">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.637159469045807</v>
+        <v>0.7195696666666667</v>
       </c>
       <c r="N4">
-        <v>0.637159469045807</v>
+        <v>2.158709</v>
       </c>
       <c r="O4">
-        <v>0.09308176332171478</v>
+        <v>0.0627886843668724</v>
       </c>
       <c r="P4">
-        <v>0.09308176332171478</v>
+        <v>0.06278868436687239</v>
       </c>
       <c r="Q4">
-        <v>0.1893384880278023</v>
+        <v>0.5716522875645557</v>
       </c>
       <c r="R4">
-        <v>0.1893384880278023</v>
+        <v>5.144870588081</v>
       </c>
       <c r="S4">
-        <v>0.004987450959755601</v>
+        <v>0.007232857249246642</v>
       </c>
       <c r="T4">
-        <v>0.004987450959755601</v>
+        <v>0.00723285724924664</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H5">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I5">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J5">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.810187638103521</v>
+        <v>0.8600630000000001</v>
       </c>
       <c r="N5">
-        <v>0.810187638103521</v>
+        <v>2.580189</v>
       </c>
       <c r="O5">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033758</v>
       </c>
       <c r="P5">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033756</v>
       </c>
       <c r="Q5">
-        <v>0.2407555876820982</v>
+        <v>0.6832652961556669</v>
       </c>
       <c r="R5">
-        <v>0.2407555876820982</v>
+        <v>6.149387665401001</v>
       </c>
       <c r="S5">
-        <v>0.006341852094410337</v>
+        <v>0.008645046049780886</v>
       </c>
       <c r="T5">
-        <v>0.006341852094410337</v>
+        <v>0.008645046049780884</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H6">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I6">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J6">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.270740580515301</v>
+        <v>0.2817366666666666</v>
       </c>
       <c r="N6">
-        <v>0.270740580515301</v>
+        <v>0.8452099999999999</v>
       </c>
       <c r="O6">
-        <v>0.03955212448596153</v>
+        <v>0.0245839638013851</v>
       </c>
       <c r="P6">
-        <v>0.03955212448596153</v>
+        <v>0.02458396380138509</v>
       </c>
       <c r="Q6">
-        <v>0.08045334747877886</v>
+        <v>0.2238218444322222</v>
       </c>
       <c r="R6">
-        <v>0.08045334747877886</v>
+        <v>2.01439659989</v>
       </c>
       <c r="S6">
-        <v>0.002119258103717752</v>
+        <v>0.002831916333158269</v>
       </c>
       <c r="T6">
-        <v>0.002119258103717752</v>
+        <v>0.002831916333158268</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.297160282827391</v>
+        <v>0.7944363333333334</v>
       </c>
       <c r="H7">
-        <v>0.297160282827391</v>
+        <v>2.383309</v>
       </c>
       <c r="I7">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="J7">
-        <v>0.05358139749155454</v>
+        <v>0.1151936423286921</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91787272046595</v>
+        <v>1.926836</v>
       </c>
       <c r="N7">
-        <v>1.91787272046595</v>
+        <v>5.780508</v>
       </c>
       <c r="O7">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990026</v>
       </c>
       <c r="P7">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990025</v>
       </c>
       <c r="Q7">
-        <v>0.5699156000405995</v>
+        <v>1.530748526774667</v>
       </c>
       <c r="R7">
-        <v>0.5699156000405995</v>
+        <v>13.776736740972</v>
       </c>
       <c r="S7">
-        <v>0.01501240522204233</v>
+        <v>0.01936786717993403</v>
       </c>
       <c r="T7">
-        <v>0.01501240522204233</v>
+        <v>0.01936786717993402</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.41034651236232</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H8">
-        <v>4.41034651236232</v>
+        <v>13.997732</v>
       </c>
       <c r="I8">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J8">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.42855594445353</v>
+        <v>6.875642333333333</v>
       </c>
       <c r="N8">
-        <v>2.42855594445353</v>
+        <v>20.626927</v>
       </c>
       <c r="O8">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475348</v>
       </c>
       <c r="P8">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475347</v>
       </c>
       <c r="Q8">
-        <v>10.71077323969741</v>
+        <v>32.08113290328488</v>
       </c>
       <c r="R8">
-        <v>10.71077323969741</v>
+        <v>288.730196129564</v>
       </c>
       <c r="S8">
-        <v>0.2821373342022747</v>
+        <v>0.4059080313876385</v>
       </c>
       <c r="T8">
-        <v>0.2821373342022747</v>
+        <v>0.4059080313876385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.41034651236232</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H9">
-        <v>4.41034651236232</v>
+        <v>13.997732</v>
       </c>
       <c r="I9">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J9">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.780642637836154</v>
+        <v>0.7963330000000001</v>
       </c>
       <c r="N9">
-        <v>0.780642637836154</v>
+        <v>2.388999</v>
       </c>
       <c r="O9">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486755</v>
       </c>
       <c r="P9">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486754</v>
       </c>
       <c r="Q9">
-        <v>3.442904535182004</v>
+        <v>3.715618638918667</v>
       </c>
       <c r="R9">
-        <v>3.442904535182004</v>
+        <v>33.440567750268</v>
       </c>
       <c r="S9">
-        <v>0.09069110938405178</v>
+        <v>0.04701203824869488</v>
       </c>
       <c r="T9">
-        <v>0.09069110938405178</v>
+        <v>0.04701203824869488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.41034651236232</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H10">
-        <v>4.41034651236232</v>
+        <v>13.997732</v>
       </c>
       <c r="I10">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J10">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.637159469045807</v>
+        <v>0.7195696666666667</v>
       </c>
       <c r="N10">
-        <v>0.637159469045807</v>
+        <v>2.158709</v>
       </c>
       <c r="O10">
-        <v>0.09308176332171478</v>
+        <v>0.0627886843668724</v>
       </c>
       <c r="P10">
-        <v>0.09308176332171478</v>
+        <v>0.06278868436687239</v>
       </c>
       <c r="Q10">
-        <v>2.810094042124803</v>
+        <v>3.357447783109778</v>
       </c>
       <c r="R10">
-        <v>2.810094042124803</v>
+        <v>30.217030047988</v>
       </c>
       <c r="S10">
-        <v>0.0740219612683337</v>
+        <v>0.04248026477859634</v>
       </c>
       <c r="T10">
-        <v>0.0740219612683337</v>
+        <v>0.04248026477859634</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.41034651236232</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H11">
-        <v>4.41034651236232</v>
+        <v>13.997732</v>
       </c>
       <c r="I11">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J11">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.810187638103521</v>
+        <v>0.8600630000000001</v>
       </c>
       <c r="N11">
-        <v>0.810187638103521</v>
+        <v>2.580189</v>
       </c>
       <c r="O11">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033758</v>
       </c>
       <c r="P11">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033756</v>
       </c>
       <c r="Q11">
-        <v>3.573208224068929</v>
+        <v>4.012977125705333</v>
       </c>
       <c r="R11">
-        <v>3.573208224068929</v>
+        <v>36.116794131348</v>
       </c>
       <c r="S11">
-        <v>0.09412349793308977</v>
+        <v>0.05077438038143248</v>
       </c>
       <c r="T11">
-        <v>0.09412349793308977</v>
+        <v>0.05077438038143248</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.41034651236232</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H12">
-        <v>4.41034651236232</v>
+        <v>13.997732</v>
       </c>
       <c r="I12">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J12">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.270740580515301</v>
+        <v>0.2817366666666666</v>
       </c>
       <c r="N12">
-        <v>0.270740580515301</v>
+        <v>0.8452099999999999</v>
       </c>
       <c r="O12">
-        <v>0.03955212448596153</v>
+        <v>0.0245839638013851</v>
       </c>
       <c r="P12">
-        <v>0.03955212448596153</v>
+        <v>0.02458396380138509</v>
       </c>
       <c r="Q12">
-        <v>1.194059775030608</v>
+        <v>1.314558118191111</v>
       </c>
       <c r="R12">
-        <v>1.194059775030608</v>
+        <v>11.83102306372</v>
       </c>
       <c r="S12">
-        <v>0.03145326992421894</v>
+        <v>0.01663250794503447</v>
       </c>
       <c r="T12">
-        <v>0.03145326992421894</v>
+        <v>0.01663250794503447</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.41034651236232</v>
+        <v>4.665910666666666</v>
       </c>
       <c r="H13">
-        <v>4.41034651236232</v>
+        <v>13.997732</v>
       </c>
       <c r="I13">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290096</v>
       </c>
       <c r="J13">
-        <v>0.7952359154660033</v>
+        <v>0.6765592432290097</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.91787272046595</v>
+        <v>1.926836</v>
       </c>
       <c r="N13">
-        <v>1.91787272046595</v>
+        <v>5.780508</v>
       </c>
       <c r="O13">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990026</v>
       </c>
       <c r="P13">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990025</v>
       </c>
       <c r="Q13">
-        <v>8.458483263861838</v>
+        <v>8.990444645317332</v>
       </c>
       <c r="R13">
-        <v>8.458483263861838</v>
+        <v>80.914001807856</v>
       </c>
       <c r="S13">
-        <v>0.2228087427540344</v>
+        <v>0.1137520204876129</v>
       </c>
       <c r="T13">
-        <v>0.2228087427540344</v>
+        <v>0.1137520204876129</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0557050593709434</v>
+        <v>0.001148666666666667</v>
       </c>
       <c r="H14">
-        <v>0.0557050593709434</v>
+        <v>0.003446</v>
       </c>
       <c r="I14">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="J14">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.42855594445353</v>
+        <v>6.875642333333333</v>
       </c>
       <c r="N14">
-        <v>2.42855594445353</v>
+        <v>20.626927</v>
       </c>
       <c r="O14">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475348</v>
       </c>
       <c r="P14">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475347</v>
       </c>
       <c r="Q14">
-        <v>0.1352828530714414</v>
+        <v>0.00789782116022222</v>
       </c>
       <c r="R14">
-        <v>0.1352828530714414</v>
+        <v>0.07108039044199999</v>
       </c>
       <c r="S14">
-        <v>0.003563546970389674</v>
+        <v>9.992755084622299E-05</v>
       </c>
       <c r="T14">
-        <v>0.003563546970389674</v>
+        <v>9.992755084622299E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0557050593709434</v>
+        <v>0.001148666666666667</v>
       </c>
       <c r="H15">
-        <v>0.0557050593709434</v>
+        <v>0.003446</v>
       </c>
       <c r="I15">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="J15">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.780642637836154</v>
+        <v>0.7963330000000001</v>
       </c>
       <c r="N15">
-        <v>0.780642637836154</v>
+        <v>2.388999</v>
       </c>
       <c r="O15">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486755</v>
       </c>
       <c r="P15">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486754</v>
       </c>
       <c r="Q15">
-        <v>0.04348574448815282</v>
+        <v>0.0009147211726666666</v>
       </c>
       <c r="R15">
-        <v>0.04348574448815282</v>
+        <v>0.008232490554000001</v>
       </c>
       <c r="S15">
-        <v>0.001145477712124107</v>
+        <v>1.157355233012052E-05</v>
       </c>
       <c r="T15">
-        <v>0.001145477712124107</v>
+        <v>1.157355233012052E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0557050593709434</v>
+        <v>0.001148666666666667</v>
       </c>
       <c r="H16">
-        <v>0.0557050593709434</v>
+        <v>0.003446</v>
       </c>
       <c r="I16">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="J16">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.637159469045807</v>
+        <v>0.7195696666666667</v>
       </c>
       <c r="N16">
-        <v>0.637159469045807</v>
+        <v>2.158709</v>
       </c>
       <c r="O16">
-        <v>0.09308176332171478</v>
+        <v>0.0627886843668724</v>
       </c>
       <c r="P16">
-        <v>0.09308176332171478</v>
+        <v>0.06278868436687239</v>
       </c>
       <c r="Q16">
-        <v>0.03549300605195545</v>
+        <v>0.0008265456904444444</v>
       </c>
       <c r="R16">
-        <v>0.03549300605195545</v>
+        <v>0.007438911213999999</v>
       </c>
       <c r="S16">
-        <v>0.0009349373650456277</v>
+        <v>1.045790792587278E-05</v>
       </c>
       <c r="T16">
-        <v>0.0009349373650456277</v>
+        <v>1.045790792587278E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.0557050593709434</v>
+        <v>0.001148666666666667</v>
       </c>
       <c r="H17">
-        <v>0.0557050593709434</v>
+        <v>0.003446</v>
       </c>
       <c r="I17">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="J17">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.810187638103521</v>
+        <v>0.8600630000000001</v>
       </c>
       <c r="N17">
-        <v>0.810187638103521</v>
+        <v>2.580189</v>
       </c>
       <c r="O17">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033758</v>
       </c>
       <c r="P17">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033756</v>
       </c>
       <c r="Q17">
-        <v>0.04513155048216105</v>
+        <v>0.0009879256993333334</v>
       </c>
       <c r="R17">
-        <v>0.04513155048216105</v>
+        <v>0.008891331294</v>
       </c>
       <c r="S17">
-        <v>0.001188830634025451</v>
+        <v>1.249977602045934E-05</v>
       </c>
       <c r="T17">
-        <v>0.001188830634025451</v>
+        <v>1.249977602045934E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.0557050593709434</v>
+        <v>0.001148666666666667</v>
       </c>
       <c r="H18">
-        <v>0.0557050593709434</v>
+        <v>0.003446</v>
       </c>
       <c r="I18">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="J18">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.270740580515301</v>
+        <v>0.2817366666666666</v>
       </c>
       <c r="N18">
-        <v>0.270740580515301</v>
+        <v>0.8452099999999999</v>
       </c>
       <c r="O18">
-        <v>0.03955212448596153</v>
+        <v>0.0245839638013851</v>
       </c>
       <c r="P18">
-        <v>0.03955212448596153</v>
+        <v>0.02458396380138509</v>
       </c>
       <c r="Q18">
-        <v>0.01508162011172852</v>
+        <v>0.0003236215177777777</v>
       </c>
       <c r="R18">
-        <v>0.01508162011172852</v>
+        <v>0.00291259366</v>
       </c>
       <c r="S18">
-        <v>0.0003972717934129945</v>
+        <v>4.094636358132073E-06</v>
       </c>
       <c r="T18">
-        <v>0.0003972717934129945</v>
+        <v>4.094636358132072E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.0557050593709434</v>
+        <v>0.001148666666666667</v>
       </c>
       <c r="H19">
-        <v>0.0557050593709434</v>
+        <v>0.003446</v>
       </c>
       <c r="I19">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="J19">
-        <v>0.01004425928002933</v>
+        <v>0.0001665572074224001</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.91787272046595</v>
+        <v>1.926836</v>
       </c>
       <c r="N19">
-        <v>1.91787272046595</v>
+        <v>5.780508</v>
       </c>
       <c r="O19">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990026</v>
       </c>
       <c r="P19">
-        <v>0.2801794265334078</v>
+        <v>0.1681331259990025</v>
       </c>
       <c r="Q19">
-        <v>0.1068352137594685</v>
+        <v>0.002213292285333333</v>
       </c>
       <c r="R19">
-        <v>0.1068352137594685</v>
+        <v>0.019919630568</v>
       </c>
       <c r="S19">
-        <v>0.002814194805031478</v>
+        <v>2.80037839415924E-05</v>
       </c>
       <c r="T19">
-        <v>0.002814194805031478</v>
+        <v>2.80037839415924E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.782748063230389</v>
+        <v>0.152494</v>
       </c>
       <c r="H20">
-        <v>0.782748063230389</v>
+        <v>0.4574820000000001</v>
       </c>
       <c r="I20">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="J20">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.42855594445353</v>
+        <v>6.875642333333333</v>
       </c>
       <c r="N20">
-        <v>2.42855594445353</v>
+        <v>20.626927</v>
       </c>
       <c r="O20">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475348</v>
       </c>
       <c r="P20">
-        <v>0.3547844466216594</v>
+        <v>0.5999593316475347</v>
       </c>
       <c r="Q20">
-        <v>1.900947461967649</v>
+        <v>1.048494201979333</v>
       </c>
       <c r="R20">
-        <v>1.900947461967649</v>
+        <v>9.436447817814001</v>
       </c>
       <c r="S20">
-        <v>0.05007371899073875</v>
+        <v>0.01326612182711311</v>
       </c>
       <c r="T20">
-        <v>0.05007371899073875</v>
+        <v>0.01326612182711311</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.782748063230389</v>
+        <v>0.152494</v>
       </c>
       <c r="H21">
-        <v>0.782748063230389</v>
+        <v>0.4574820000000001</v>
       </c>
       <c r="I21">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="J21">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.780642637836154</v>
+        <v>0.7963330000000001</v>
       </c>
       <c r="N21">
-        <v>0.780642637836154</v>
+        <v>2.388999</v>
       </c>
       <c r="O21">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486755</v>
       </c>
       <c r="P21">
-        <v>0.1140430249945481</v>
+        <v>0.06948694991486754</v>
       </c>
       <c r="Q21">
-        <v>0.6110465128413115</v>
+        <v>0.121436004502</v>
       </c>
       <c r="R21">
-        <v>0.6110465128413115</v>
+        <v>1.092924040518</v>
       </c>
       <c r="S21">
-        <v>0.01609585324500009</v>
+        <v>0.001536474714767324</v>
       </c>
       <c r="T21">
-        <v>0.01609585324500009</v>
+        <v>0.001536474714767323</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.782748063230389</v>
+        <v>0.152494</v>
       </c>
       <c r="H22">
-        <v>0.782748063230389</v>
+        <v>0.4574820000000001</v>
       </c>
       <c r="I22">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="J22">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.637159469045807</v>
+        <v>0.7195696666666667</v>
       </c>
       <c r="N22">
-        <v>0.637159469045807</v>
+        <v>2.158709</v>
       </c>
       <c r="O22">
-        <v>0.09308176332171478</v>
+        <v>0.0627886843668724</v>
       </c>
       <c r="P22">
-        <v>0.09308176332171478</v>
+        <v>0.06278868436687239</v>
       </c>
       <c r="Q22">
-        <v>0.4987353403645085</v>
+        <v>0.1097300567486667</v>
       </c>
       <c r="R22">
-        <v>0.4987353403645085</v>
+        <v>0.9875705107380001</v>
       </c>
       <c r="S22">
-        <v>0.01313741372857987</v>
+        <v>0.001388364664464344</v>
       </c>
       <c r="T22">
-        <v>0.01313741372857987</v>
+        <v>0.001388364664464344</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.782748063230389</v>
+        <v>0.152494</v>
       </c>
       <c r="H23">
-        <v>0.782748063230389</v>
+        <v>0.4574820000000001</v>
       </c>
       <c r="I23">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="J23">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.810187638103521</v>
+        <v>0.8600630000000001</v>
       </c>
       <c r="N23">
-        <v>0.810187638103521</v>
+        <v>2.580189</v>
       </c>
       <c r="O23">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033758</v>
       </c>
       <c r="P23">
-        <v>0.1183592140427083</v>
+        <v>0.07504794427033756</v>
       </c>
       <c r="Q23">
-        <v>0.6341728045787344</v>
+        <v>0.131154447122</v>
       </c>
       <c r="R23">
-        <v>0.6341728045787344</v>
+        <v>1.180390024098</v>
       </c>
       <c r="S23">
-        <v>0.01670503338118277</v>
+        <v>0.001659437763607597</v>
       </c>
       <c r="T23">
-        <v>0.01670503338118277</v>
+        <v>0.001659437763607597</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.782748063230389</v>
+        <v>0.152494</v>
       </c>
       <c r="H24">
-        <v>0.782748063230389</v>
+        <v>0.4574820000000001</v>
       </c>
       <c r="I24">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="J24">
-        <v>0.141138427762413</v>
+        <v>0.02211170178932515</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.270740580515301</v>
+        <v>0.2817366666666666</v>
       </c>
       <c r="N24">
-        <v>0.270740580515301</v>
+        <v>0.8452099999999999</v>
       </c>
       <c r="O24">
-        <v>0.03955212448596153</v>
+        <v>0.0245839638013851</v>
       </c>
       <c r="P24">
-        <v>0.03955212448596153</v>
+        <v>0.02458396380138509</v>
       </c>
       <c r="Q24">
-        <v>0.211921665036223</v>
+        <v>0.04296315124666666</v>
       </c>
       <c r="R24">
-        <v>0.211921665036223</v>
+        <v>0.38666836122</v>
       </c>
       <c r="S24">
-        <v>0.005582324664611848</v>
+        <v>0.0005435932763757915</v>
       </c>
       <c r="T24">
-        <v>0.005582324664611848</v>
+        <v>0.0005435932763757914</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.152494</v>
+      </c>
+      <c r="H25">
+        <v>0.4574820000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="J25">
+        <v>0.02211170178932515</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.926836</v>
+      </c>
+      <c r="N25">
+        <v>5.780508</v>
+      </c>
+      <c r="O25">
+        <v>0.1681331259990026</v>
+      </c>
+      <c r="P25">
+        <v>0.1681331259990025</v>
+      </c>
+      <c r="Q25">
+        <v>0.293830928984</v>
+      </c>
+      <c r="R25">
+        <v>2.644478360856001</v>
+      </c>
+      <c r="S25">
+        <v>0.003717709542996976</v>
+      </c>
+      <c r="T25">
+        <v>0.003717709542996975</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H26">
+        <v>0.001163</v>
+      </c>
+      <c r="I26">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J26">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>6.875642333333333</v>
+      </c>
+      <c r="N26">
+        <v>20.626927</v>
+      </c>
+      <c r="O26">
+        <v>0.5999593316475348</v>
+      </c>
+      <c r="P26">
+        <v>0.5999593316475347</v>
+      </c>
+      <c r="Q26">
+        <v>0.002665457344555555</v>
+      </c>
+      <c r="R26">
+        <v>0.023989116101</v>
+      </c>
+      <c r="S26">
+        <v>3.37248234573875E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.37248234573875E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H27">
+        <v>0.001163</v>
+      </c>
+      <c r="I27">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J27">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.7963330000000001</v>
+      </c>
+      <c r="N27">
+        <v>2.388999</v>
+      </c>
+      <c r="O27">
+        <v>0.06948694991486755</v>
+      </c>
+      <c r="P27">
+        <v>0.06948694991486754</v>
+      </c>
+      <c r="Q27">
+        <v>0.0003087117596666667</v>
+      </c>
+      <c r="R27">
+        <v>0.002778405837</v>
+      </c>
+      <c r="S27">
+        <v>3.90598994774526E-06</v>
+      </c>
+      <c r="T27">
+        <v>3.90598994774526E-06</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H28">
+        <v>0.001163</v>
+      </c>
+      <c r="I28">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J28">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.7195696666666667</v>
+      </c>
+      <c r="N28">
+        <v>2.158709</v>
+      </c>
+      <c r="O28">
+        <v>0.0627886843668724</v>
+      </c>
+      <c r="P28">
+        <v>0.06278868436687239</v>
+      </c>
+      <c r="Q28">
+        <v>0.0002789531741111111</v>
+      </c>
+      <c r="R28">
+        <v>0.002510578567</v>
+      </c>
+      <c r="S28">
+        <v>3.529468055075461E-06</v>
+      </c>
+      <c r="T28">
+        <v>3.529468055075461E-06</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H29">
+        <v>0.001163</v>
+      </c>
+      <c r="I29">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J29">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.8600630000000001</v>
+      </c>
+      <c r="N29">
+        <v>2.580189</v>
+      </c>
+      <c r="O29">
+        <v>0.07504794427033758</v>
+      </c>
+      <c r="P29">
+        <v>0.07504794427033756</v>
+      </c>
+      <c r="Q29">
+        <v>0.0003334177563333333</v>
+      </c>
+      <c r="R29">
+        <v>0.003000759807</v>
+      </c>
+      <c r="S29">
+        <v>4.218583723677949E-06</v>
+      </c>
+      <c r="T29">
+        <v>4.218583723677948E-06</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H30">
+        <v>0.001163</v>
+      </c>
+      <c r="I30">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J30">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.2817366666666666</v>
+      </c>
+      <c r="N30">
+        <v>0.8452099999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.0245839638013851</v>
+      </c>
+      <c r="P30">
+        <v>0.02458396380138509</v>
+      </c>
+      <c r="Q30">
+        <v>0.0001092199144444444</v>
+      </c>
+      <c r="R30">
+        <v>0.0009829792299999999</v>
+      </c>
+      <c r="S30">
+        <v>1.381910065150204E-06</v>
+      </c>
+      <c r="T30">
+        <v>1.381910065150203E-06</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.0003876666666666666</v>
+      </c>
+      <c r="H31">
+        <v>0.001163</v>
+      </c>
+      <c r="I31">
+        <v>5.621184916780363E-05</v>
+      </c>
+      <c r="J31">
+        <v>5.621184916780364E-05</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.926836</v>
+      </c>
+      <c r="N31">
+        <v>5.780508</v>
+      </c>
+      <c r="O31">
+        <v>0.1681331259990026</v>
+      </c>
+      <c r="P31">
+        <v>0.1681331259990025</v>
+      </c>
+      <c r="Q31">
+        <v>0.0007469700893333333</v>
+      </c>
+      <c r="R31">
+        <v>0.006722730804</v>
+      </c>
+      <c r="S31">
+        <v>9.451073918767256E-06</v>
+      </c>
+      <c r="T31">
+        <v>9.451073918767256E-06</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1.282152</v>
+      </c>
+      <c r="H32">
+        <v>3.846456</v>
+      </c>
+      <c r="I32">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J32">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>6.875642333333333</v>
+      </c>
+      <c r="N32">
+        <v>20.626927</v>
+      </c>
+      <c r="O32">
+        <v>0.5999593316475348</v>
+      </c>
+      <c r="P32">
+        <v>0.5999593316475347</v>
+      </c>
+      <c r="Q32">
+        <v>8.815618568968</v>
+      </c>
+      <c r="R32">
+        <v>79.340567120712</v>
+      </c>
+      <c r="S32">
+        <v>0.1115400253969122</v>
+      </c>
+      <c r="T32">
+        <v>0.1115400253969122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1.282152</v>
+      </c>
+      <c r="H33">
+        <v>3.846456</v>
+      </c>
+      <c r="I33">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J33">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.7963330000000001</v>
+      </c>
+      <c r="N33">
+        <v>2.388999</v>
+      </c>
+      <c r="O33">
+        <v>0.06948694991486755</v>
+      </c>
+      <c r="P33">
+        <v>0.06948694991486754</v>
+      </c>
+      <c r="Q33">
+        <v>1.021019948616</v>
+      </c>
+      <c r="R33">
+        <v>9.189179537544002</v>
+      </c>
+      <c r="S33">
+        <v>0.01291850255412248</v>
+      </c>
+      <c r="T33">
+        <v>0.01291850255412248</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1.282152</v>
+      </c>
+      <c r="H34">
+        <v>3.846456</v>
+      </c>
+      <c r="I34">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J34">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0.7195696666666667</v>
+      </c>
+      <c r="N34">
+        <v>2.158709</v>
+      </c>
+      <c r="O34">
+        <v>0.0627886843668724</v>
+      </c>
+      <c r="P34">
+        <v>0.06278868436687239</v>
+      </c>
+      <c r="Q34">
+        <v>0.9225976872560001</v>
+      </c>
+      <c r="R34">
+        <v>8.303379185304001</v>
+      </c>
+      <c r="S34">
+        <v>0.01167321029858413</v>
+      </c>
+      <c r="T34">
+        <v>0.01167321029858413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.782748063230389</v>
-      </c>
-      <c r="H25">
-        <v>0.782748063230389</v>
-      </c>
-      <c r="I25">
-        <v>0.141138427762413</v>
-      </c>
-      <c r="J25">
-        <v>0.141138427762413</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1.91787272046595</v>
-      </c>
-      <c r="N25">
-        <v>1.91787272046595</v>
-      </c>
-      <c r="O25">
-        <v>0.2801794265334078</v>
-      </c>
-      <c r="P25">
-        <v>0.2801794265334078</v>
-      </c>
-      <c r="Q25">
-        <v>1.50121115746712</v>
-      </c>
-      <c r="R25">
-        <v>1.50121115746712</v>
-      </c>
-      <c r="S25">
-        <v>0.03954408375229968</v>
-      </c>
-      <c r="T25">
-        <v>0.03954408375229968</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1.282152</v>
+      </c>
+      <c r="H35">
+        <v>3.846456</v>
+      </c>
+      <c r="I35">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J35">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.8600630000000001</v>
+      </c>
+      <c r="N35">
+        <v>2.580189</v>
+      </c>
+      <c r="O35">
+        <v>0.07504794427033758</v>
+      </c>
+      <c r="P35">
+        <v>0.07504794427033756</v>
+      </c>
+      <c r="Q35">
+        <v>1.102731495576</v>
+      </c>
+      <c r="R35">
+        <v>9.924583460184001</v>
+      </c>
+      <c r="S35">
+        <v>0.01395236171577248</v>
+      </c>
+      <c r="T35">
+        <v>0.01395236171577248</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1.282152</v>
+      </c>
+      <c r="H36">
+        <v>3.846456</v>
+      </c>
+      <c r="I36">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J36">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.2817366666666666</v>
+      </c>
+      <c r="N36">
+        <v>0.8452099999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.0245839638013851</v>
+      </c>
+      <c r="P36">
+        <v>0.02458396380138509</v>
+      </c>
+      <c r="Q36">
+        <v>0.36122923064</v>
+      </c>
+      <c r="R36">
+        <v>3.25106307576</v>
+      </c>
+      <c r="S36">
+        <v>0.004570469700393287</v>
+      </c>
+      <c r="T36">
+        <v>0.004570469700393286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1.282152</v>
+      </c>
+      <c r="H37">
+        <v>3.846456</v>
+      </c>
+      <c r="I37">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="J37">
+        <v>0.1859126435963829</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1.926836</v>
+      </c>
+      <c r="N37">
+        <v>5.780508</v>
+      </c>
+      <c r="O37">
+        <v>0.1681331259990026</v>
+      </c>
+      <c r="P37">
+        <v>0.1681331259990025</v>
+      </c>
+      <c r="Q37">
+        <v>2.470496631072</v>
+      </c>
+      <c r="R37">
+        <v>22.234469679648</v>
+      </c>
+      <c r="S37">
+        <v>0.03125807393059831</v>
+      </c>
+      <c r="T37">
+        <v>0.0312580739305983</v>
       </c>
     </row>
   </sheetData>
